--- a/va_facility_data_2025-02-20/Thunderbird VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Thunderbird%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Thunderbird VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Thunderbird%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4efa117db18c4e26bd0cbdeacd081b7c"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Re2289df4015040af9b326aa3399855bf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf2ee7a2e4fa249c9a93b12e1593d6618"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Ra27e52b0452a43089a8b8ceadf995e5d"/>
   </x:sheets>
 </x:workbook>
 </file>
